--- a/ITEST/itest.WebService/openl-repository/deployment2/simple2/module1.xlsx
+++ b/ITEST/itest.WebService/openl-repository/deployment2/simple2/module1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\OPENL\ITEST\itest.WebService\openl-repository\deployment2\simple2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0737ED-86FC-4FCB-B44E-84A75BCC8C31}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F5F499-D76D-4B71-BE59-780744EDB082}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12735" yWindow="810" windowWidth="21495" windowHeight="18375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="1620" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,15 +30,6 @@
     <t>Step2</t>
   </si>
   <si>
-    <t>*Step1</t>
-  </si>
-  <si>
-    <t>*Values</t>
-  </si>
-  <si>
-    <t>*moreValues</t>
-  </si>
-  <si>
     <t>properties</t>
   </si>
   <si>
@@ -69,12 +60,6 @@
     <t>Spreadsheet SpreadsheetResult sprTwoTwo(Integer myVar)</t>
   </si>
   <si>
-    <t>*Formula</t>
-  </si>
-  <si>
-    <t>*Step2</t>
-  </si>
-  <si>
     <t>Spreadsheet SpreadsheetResult sprOneOne(Integer myVar)</t>
   </si>
   <si>
@@ -102,16 +87,31 @@
     <t>Formula</t>
   </si>
   <si>
-    <t>Spreadsheet SpreadsheetResult sprTwoTwoIgnored1(Integer myVar)</t>
-  </si>
-  <si>
-    <t>Spreadsheet SpreadsheetResult sprTwoTwoIgnored2(Integer myVar)</t>
-  </si>
-  <si>
     <t>SimpleRules SpreadsheetResult[] dtRetSpr2(Integer[] v)</t>
   </si>
   <si>
     <t>SimpleRules SpreadsheetResultsprOneOne[] dtRetSpr3(Integer[] v)</t>
+  </si>
+  <si>
+    <t>Values*</t>
+  </si>
+  <si>
+    <t>Formula*</t>
+  </si>
+  <si>
+    <t>Step1*</t>
+  </si>
+  <si>
+    <t>Step2*</t>
+  </si>
+  <si>
+    <t>Spreadsheet SpreadsheetResult sprTwoTwo1(Integer myVar)</t>
+  </si>
+  <si>
+    <t>Spreadsheet SpreadsheetResult sprTwoTwo2(Integer myVar)</t>
+  </si>
+  <si>
+    <t>moreValues*</t>
   </si>
 </sst>
 </file>
@@ -544,32 +544,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B5:F80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F77" sqref="F77"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="43.85546875" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="33.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="24" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5" s="24"/>
       <c r="D5" s="24"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>1</v>
@@ -585,25 +585,25 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F8" s="10"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
@@ -627,20 +627,20 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="25" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
@@ -648,21 +648,21 @@
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="D22" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
@@ -670,10 +670,10 @@
         <v>1</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
@@ -683,20 +683,20 @@
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="24" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C32" s="24"/>
       <c r="D32" s="24"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
@@ -704,37 +704,37 @@
         <v>0</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" s="13" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="13" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" s="24" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C43" s="24"/>
       <c r="D43" s="15"/>
@@ -744,16 +744,16 @@
         <v>0</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="D44" s="15"/>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" s="14" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D45" s="16"/>
     </row>
@@ -764,15 +764,15 @@
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C49" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
@@ -780,7 +780,7 @@
         <v>1</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="2:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
@@ -788,15 +788,15 @@
     </row>
     <row r="53" spans="2:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="22" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" spans="2:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="22" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
@@ -804,12 +804,12 @@
         <v>1</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" s="24" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C58" s="24"/>
     </row>
@@ -818,33 +818,33 @@
         <v>0</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" s="17" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B63" s="24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C63" s="24"/>
       <c r="D63" s="24"/>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B64" s="20" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C64" s="21" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
@@ -855,47 +855,47 @@
         <v>23</v>
       </c>
       <c r="D65" s="21" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" s="21" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67" s="21" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B70" s="24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C70" s="24"/>
       <c r="D70" s="24"/>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B71" s="20" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C71" s="21" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.25">
@@ -903,21 +903,21 @@
         <v>0</v>
       </c>
       <c r="C72" s="21" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="D72" s="21" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B73" s="21" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.25">
@@ -925,25 +925,25 @@
         <v>1</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B78" s="23" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C78" s="23"/>
       <c r="D78" s="23"/>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B79" s="23" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C79" s="23" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D79" s="23"/>
     </row>
@@ -952,7 +952,7 @@
         <v>1</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D80" s="23"/>
     </row>

--- a/ITEST/itest.WebService/openl-repository/deployment2/simple2/module1.xlsx
+++ b/ITEST/itest.WebService/openl-repository/deployment2/simple2/module1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\OPENL\ITEST\itest.WebService\openl-repository\deployment2\simple2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F5F499-D76D-4B71-BE59-780744EDB082}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31E71B7-CCFB-42E7-A661-8660BEE41133}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="1620" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="33">
   <si>
     <t>Steps</t>
   </si>
@@ -112,6 +112,15 @@
   </si>
   <si>
     <t>moreValues*</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Spreadsheet SpreadsheetResult sprWithEmptyRow(Integer myVar)</t>
+  </si>
+  <si>
+    <t>Spreadsheet SpreadsheetResult sprWithEmptyColumn(Integer myVar)</t>
   </si>
 </sst>
 </file>
@@ -147,7 +156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -169,6 +178,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -542,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B5:F80"/>
+  <dimension ref="B5:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,11 +565,11 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
@@ -626,11 +636,11 @@
       <c r="E17" s="1"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
@@ -682,11 +692,11 @@
       <c r="D25" s="2"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
@@ -733,10 +743,10 @@
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C43" s="24"/>
+      <c r="C43" s="25"/>
       <c r="D43" s="15"/>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
@@ -808,10 +818,10 @@
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B58" s="24" t="s">
+      <c r="B58" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="24"/>
+      <c r="C58" s="25"/>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" s="17" t="s">
@@ -830,11 +840,11 @@
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B63" s="24" t="s">
+      <c r="B63" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C63" s="24"/>
-      <c r="D63" s="24"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="25"/>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B64" s="20" t="s">
@@ -881,11 +891,11 @@
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B70" s="24" t="s">
+      <c r="B70" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C70" s="24"/>
-      <c r="D70" s="24"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="25"/>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B71" s="20" t="s">
@@ -956,8 +966,80 @@
       </c>
       <c r="D80" s="23"/>
     </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B83" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C83" s="25"/>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B84" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C84" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B85" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C85" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>1</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B89" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C89" s="25"/>
+      <c r="D89" s="25"/>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B90" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C90" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D90" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B91" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C91" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B92" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B89:D89"/>
     <mergeCell ref="B70:D70"/>
     <mergeCell ref="B58:C58"/>
     <mergeCell ref="B20:D20"/>

--- a/ITEST/itest.WebService/openl-repository/deployment2/simple2/module1.xlsx
+++ b/ITEST/itest.WebService/openl-repository/deployment2/simple2/module1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\OPENL\ITEST\itest.WebService\openl-repository\deployment2\simple2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31E71B7-CCFB-42E7-A661-8660BEE41133}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2746A9-9A26-4687-8462-6445DAA70C96}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13215" yWindow="2595" windowWidth="21495" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="35">
   <si>
     <t>Steps</t>
   </si>
@@ -121,6 +121,12 @@
   </si>
   <si>
     <t>Spreadsheet SpreadsheetResult sprWithEmptyColumn(Integer myVar)</t>
+  </si>
+  <si>
+    <t>Spreadsheet SpreadsheetResult sprIfNode(Integer myVar)</t>
+  </si>
+  <si>
+    <t>= myVar != null ? sprTwoTwo1(myVar) : sprTwoTwo2(myVar)</t>
   </si>
 </sst>
 </file>
@@ -156,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -178,6 +184,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -552,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B5:F92"/>
+  <dimension ref="B5:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C88" sqref="C88"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,11 +572,11 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
@@ -636,11 +643,11 @@
       <c r="E17" s="1"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
@@ -692,11 +699,11 @@
       <c r="D25" s="2"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
@@ -743,10 +750,10 @@
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="25" t="s">
+      <c r="B43" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C43" s="25"/>
+      <c r="C43" s="26"/>
       <c r="D43" s="15"/>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
@@ -818,10 +825,10 @@
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B58" s="25" t="s">
+      <c r="B58" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="25"/>
+      <c r="C58" s="26"/>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" s="17" t="s">
@@ -840,11 +847,11 @@
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B63" s="25" t="s">
+      <c r="B63" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C63" s="25"/>
-      <c r="D63" s="25"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="26"/>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B64" s="20" t="s">
@@ -891,11 +898,11 @@
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B70" s="25" t="s">
+      <c r="B70" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C70" s="25"/>
-      <c r="D70" s="25"/>
+      <c r="C70" s="26"/>
+      <c r="D70" s="26"/>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B71" s="20" t="s">
@@ -967,10 +974,10 @@
       <c r="D80" s="23"/>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B83" s="25" t="s">
+      <c r="B83" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C83" s="25"/>
+      <c r="C83" s="26"/>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B84" s="24" t="s">
@@ -997,11 +1004,11 @@
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B89" s="25" t="s">
+      <c r="B89" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C89" s="25"/>
-      <c r="D89" s="25"/>
+      <c r="C89" s="26"/>
+      <c r="D89" s="26"/>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B90" s="24" t="s">
@@ -1036,17 +1043,48 @@
         <v>8</v>
       </c>
     </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B97" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C97" s="26"/>
+      <c r="D97" s="18"/>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B98" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C98" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D98" s="25"/>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B99" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D99" s="1"/>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B100" s="25"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B97:C97"/>
     <mergeCell ref="B83:C83"/>
     <mergeCell ref="B89:D89"/>
     <mergeCell ref="B70:D70"/>
     <mergeCell ref="B58:C58"/>
     <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B63:D63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ITEST/itest.WebService/openl-repository/deployment2/simple2/module1.xlsx
+++ b/ITEST/itest.WebService/openl-repository/deployment2/simple2/module1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\OPENL\ITEST\itest.WebService\openl-repository\deployment2\simple2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2746A9-9A26-4687-8462-6445DAA70C96}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281C3876-A62A-49A5-A99A-ACFD2526B367}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13215" yWindow="2595" windowWidth="21495" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8295" yWindow="450" windowWidth="28845" windowHeight="20115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="37">
   <si>
     <t>Steps</t>
   </si>
@@ -127,6 +127,12 @@
   </si>
   <si>
     <t>= myVar != null ? sprTwoTwo1(myVar) : sprTwoTwo2(myVar)</t>
+  </si>
+  <si>
+    <t>verboseOutputModel</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
 </sst>
 </file>
@@ -162,7 +168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -189,10 +195,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -559,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B5:F100"/>
+  <dimension ref="B5:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D94" sqref="D94"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,11 +585,11 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
@@ -643,11 +656,11 @@
       <c r="E17" s="1"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
@@ -699,11 +712,11 @@
       <c r="D25" s="2"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="26" t="s">
+      <c r="B32" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
@@ -750,10 +763,10 @@
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="26" t="s">
+      <c r="B43" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C43" s="26"/>
+      <c r="C43" s="27"/>
       <c r="D43" s="15"/>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
@@ -825,10 +838,10 @@
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B58" s="26" t="s">
+      <c r="B58" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="26"/>
+      <c r="C58" s="27"/>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" s="17" t="s">
@@ -847,11 +860,11 @@
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B63" s="26" t="s">
+      <c r="B63" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C63" s="26"/>
-      <c r="D63" s="26"/>
+      <c r="C63" s="27"/>
+      <c r="D63" s="27"/>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B64" s="20" t="s">
@@ -898,193 +911,203 @@
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B70" s="26" t="s">
+      <c r="B70" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C70" s="26"/>
-      <c r="D70" s="26"/>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B71" s="20" t="s">
+      <c r="C70" s="27"/>
+      <c r="D70" s="27"/>
+    </row>
+    <row r="71" spans="2:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C71" s="21" t="s">
+      <c r="C71" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D71" s="30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B72" s="29"/>
+      <c r="C72" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D71" s="20" t="s">
+      <c r="D72" s="20" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B72" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C72" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D72" s="21" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B73" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="C73" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D73" s="21" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B74" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B75" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C75" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D75" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B78" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C78" s="23"/>
-      <c r="D78" s="23"/>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B79" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C79" s="23"/>
+      <c r="D79" s="23"/>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B80" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C79" s="23" t="s">
+      <c r="C80" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D79" s="23"/>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B80" s="23">
+      <c r="D80" s="23"/>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B81" s="23">
         <v>1</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C81" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D80" s="23"/>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B83" s="26" t="s">
+      <c r="D81" s="23"/>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B84" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C83" s="26"/>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B84" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C84" s="18" t="s">
-        <v>23</v>
-      </c>
+      <c r="C84" s="27"/>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B85" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C85" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B86" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C85" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B86" t="s">
+      <c r="C86" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
         <v>1</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B89" s="26" t="s">
+      <c r="C87" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B90" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C89" s="26"/>
-      <c r="D89" s="26"/>
-    </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B90" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C90" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D90" s="18" t="s">
-        <v>23</v>
-      </c>
+      <c r="C90" s="27"/>
+      <c r="D90" s="27"/>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B91" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C91" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D91" s="19" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="C91" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D91" s="18" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B92" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C92" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D92" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B93" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C92" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B97" s="26" t="s">
+      <c r="C93" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B98" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="C97" s="26"/>
-      <c r="D97" s="18"/>
-    </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B98" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C98" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D98" s="25"/>
+      <c r="C98" s="27"/>
+      <c r="D98" s="18"/>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B99" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C99" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D99" s="25"/>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B100" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C100" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D99" s="1"/>
-    </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B100" s="25"/>
-      <c r="C100" s="1"/>
       <c r="D100" s="1"/>
     </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B101" s="25"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B90:D90"/>
     <mergeCell ref="B70:D70"/>
     <mergeCell ref="B58:C58"/>
     <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B71:B72"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ITEST/itest.WebService/openl-repository/deployment2/simple2/module1.xlsx
+++ b/ITEST/itest.WebService/openl-repository/deployment2/simple2/module1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\OPENL\ITEST\itest.WebService\openl-repository\deployment2\simple2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281C3876-A62A-49A5-A99A-ACFD2526B367}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005860CB-D6F3-47CF-8077-F482A879620D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8295" yWindow="450" windowWidth="28845" windowHeight="20115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2925" yWindow="1470" windowWidth="28875" windowHeight="17610" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -129,10 +129,10 @@
     <t>= myVar != null ? sprTwoTwo1(myVar) : sprTwoTwo2(myVar)</t>
   </si>
   <si>
-    <t>verboseOutputModel</t>
-  </si>
-  <si>
     <t>true</t>
+  </si>
+  <si>
+    <t>detailedPlainModel</t>
   </si>
 </sst>
 </file>
@@ -197,14 +197,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -574,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B5:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,11 +585,11 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
@@ -656,11 +656,11 @@
       <c r="E17" s="1"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
@@ -712,11 +712,11 @@
       <c r="D25" s="2"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
@@ -763,10 +763,10 @@
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="27" t="s">
+      <c r="B43" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C43" s="27"/>
+      <c r="C43" s="28"/>
       <c r="D43" s="15"/>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
@@ -838,10 +838,10 @@
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B58" s="27" t="s">
+      <c r="B58" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="27"/>
+      <c r="C58" s="28"/>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" s="17" t="s">
@@ -860,11 +860,11 @@
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B63" s="27" t="s">
+      <c r="B63" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C63" s="27"/>
-      <c r="D63" s="27"/>
+      <c r="C63" s="28"/>
+      <c r="D63" s="28"/>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B64" s="20" t="s">
@@ -911,25 +911,25 @@
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B70" s="27" t="s">
+      <c r="B70" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C70" s="27"/>
-      <c r="D70" s="27"/>
+      <c r="C70" s="28"/>
+      <c r="D70" s="28"/>
     </row>
     <row r="71" spans="2:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="29" t="s">
+      <c r="B71" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C71" s="30" t="s">
+      <c r="C71" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D71" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D71" s="30" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B72" s="29"/>
+      <c r="B72" s="30"/>
       <c r="C72" s="21" t="s">
         <v>3</v>
       </c>
@@ -996,10 +996,10 @@
       <c r="D81" s="23"/>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B84" s="27" t="s">
+      <c r="B84" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C84" s="27"/>
+      <c r="C84" s="28"/>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B85" s="24" t="s">
@@ -1026,11 +1026,11 @@
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B90" s="27" t="s">
+      <c r="B90" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C90" s="27"/>
-      <c r="D90" s="27"/>
+      <c r="C90" s="28"/>
+      <c r="D90" s="28"/>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B91" s="24" t="s">
@@ -1066,10 +1066,10 @@
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B98" s="27" t="s">
+      <c r="B98" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="C98" s="27"/>
+      <c r="C98" s="28"/>
       <c r="D98" s="18"/>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.25">
@@ -1129,7 +1129,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/ITEST/itest.WebService/openl-repository/deployment2/simple2/module1.xlsx
+++ b/ITEST/itest.WebService/openl-repository/deployment2/simple2/module1.xlsx
@@ -1,28 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\OPENL\ITEST\itest.WebService\openl-repository\deployment2\simple2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005860CB-D6F3-47CF-8077-F482A879620D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7801F369-5504-4ACC-9E8C-7436688202C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2925" yWindow="1470" windowWidth="28875" windowHeight="17610" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="38">
   <si>
     <t>Steps</t>
   </si>
@@ -84,9 +82,6 @@
     <t>Step1</t>
   </si>
   <si>
-    <t>Formula</t>
-  </si>
-  <si>
     <t>SimpleRules SpreadsheetResult[] dtRetSpr2(Integer[] v)</t>
   </si>
   <si>
@@ -133,6 +128,12 @@
   </si>
   <si>
     <t>detailedPlainModel</t>
+  </si>
+  <si>
+    <t>Step2~</t>
+  </si>
+  <si>
+    <t>Formula~</t>
   </si>
 </sst>
 </file>
@@ -168,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -176,11 +177,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -572,50 +569,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B5:F101"/>
+  <dimension ref="B5:F91"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="43.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="33.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="43.86328125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="33.3984375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="28" t="s">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B5" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="12" t="s">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B7" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="12" t="s">
-        <v>23</v>
+      <c r="C7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B8" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>8</v>
@@ -623,11 +620,11 @@
       <c r="D8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="10"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="12" t="s">
-        <v>29</v>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B9" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>9</v>
@@ -636,503 +633,468 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D12" s="9"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E15" s="11"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E17" s="1"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="29" t="s">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B14" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="5" t="s">
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B15" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C15" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D15" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
         <v>0</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B19" s="4"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B23" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B24" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B25" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D22" t="s">
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B26" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B27" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B33" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="24"/>
+      <c r="D33" s="11"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B34" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="11"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B35" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="12"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B36" s="10"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" s="18" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C41" s="1"/>
+    </row>
+    <row r="43" spans="2:4" s="18" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" s="18" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B45" s="18">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B48" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="24"/>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B49" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B50" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B53" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B54" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B55" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B56" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B57" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B60" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C60" s="24"/>
+      <c r="D60" s="24"/>
+    </row>
+    <row r="61" spans="2:4" s="22" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C61" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D61" s="23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B62" s="26"/>
+      <c r="C62" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B63" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B64" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B65" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B69" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B70" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70" s="19"/>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B71" s="19">
+        <v>1</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D71" s="19"/>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B74" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C74" s="24"/>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B75" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B76" s="20" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+      <c r="C76" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B77" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="4"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="13" t="s">
+      <c r="C77" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B80" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C80" s="24"/>
+      <c r="D80" s="24"/>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B81" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C34" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D34" s="13" t="s">
+      <c r="C81" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D81" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B82" s="20" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43" s="28"/>
-      <c r="D43" s="15"/>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="14" t="s">
+      <c r="C82" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B83" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B88" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C88" s="24"/>
+      <c r="D88" s="14"/>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B89" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C44" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D44" s="15"/>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" s="16"/>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="14"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>14</v>
-      </c>
-      <c r="C49" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B50">
-        <v>1</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C51" s="1"/>
-    </row>
-    <row r="53" spans="2:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C54" s="22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B55" s="22">
-        <v>1</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B58" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="C58" s="28"/>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B59" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C59" s="18" t="s">
+      <c r="C89" s="21" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B60" s="17" t="s">
+      <c r="D89" s="21"/>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B90" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C60" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B63" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="C63" s="28"/>
-      <c r="D63" s="28"/>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B64" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="C64" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D64" s="20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B65" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C65" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D65" s="21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B66" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B67" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B70" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="C70" s="28"/>
-      <c r="D70" s="28"/>
-    </row>
-    <row r="71" spans="2:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="C71" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="D71" s="27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B72" s="30"/>
-      <c r="C72" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D72" s="20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B73" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C73" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D73" s="21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B74" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B75" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B79" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C79" s="23"/>
-      <c r="D79" s="23"/>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B80" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C80" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D80" s="23"/>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B81" s="23">
-        <v>1</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D81" s="23"/>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B84" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C84" s="28"/>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B85" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C85" s="18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B86" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C86" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
-        <v>1</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B90" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="C90" s="28"/>
-      <c r="D90" s="28"/>
-    </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B91" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C91" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D91" s="18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B92" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C92" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D92" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B93" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B98" s="28" t="s">
+      <c r="C90" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C98" s="28"/>
-      <c r="D98" s="18"/>
-    </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B99" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C99" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D99" s="25"/>
-    </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B100" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D100" s="1"/>
-    </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B101" s="25"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
+      <c r="D90" s="1"/>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B91" s="21"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B61:B62"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/ITEST/itest.WebService/openl-repository/deployment2/simple2/module1.xlsx
+++ b/ITEST/itest.WebService/openl-repository/deployment2/simple2/module1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\OPENL\ITEST\itest.WebService\openl-repository\deployment2\simple2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7801F369-5504-4ACC-9E8C-7436688202C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F31B2A-B9F1-4651-8B19-9133DD3A3F2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6110" yWindow="2130" windowWidth="24340" windowHeight="15820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -127,13 +127,13 @@
     <t>true</t>
   </si>
   <si>
-    <t>detailedPlainModel</t>
-  </si>
-  <si>
     <t>Step2~</t>
   </si>
   <si>
     <t>Formula~</t>
+  </si>
+  <si>
+    <t>tableStructureDetails</t>
   </si>
 </sst>
 </file>
@@ -571,24 +571,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B5:F91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:XFD30"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="43.86328125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="33.3984375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="43.81640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="33.36328125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B5" s="24" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="24"/>
       <c r="D5" s="24"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B6" s="7" t="s">
         <v>2</v>
       </c>
@@ -599,7 +599,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B7" s="8" t="s">
         <v>0</v>
       </c>
@@ -607,10 +607,10 @@
         <v>24</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B8" s="8" t="s">
         <v>22</v>
       </c>
@@ -622,7 +622,7 @@
       </c>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B9" s="8" t="s">
         <v>28</v>
       </c>
@@ -633,22 +633,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B14" s="25" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="25"/>
       <c r="D14" s="25"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B15" s="5" t="s">
         <v>2</v>
       </c>
@@ -659,7 +659,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>0</v>
       </c>
@@ -670,7 +670,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>19</v>
       </c>
@@ -681,9 +681,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>9</v>
@@ -692,19 +692,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B19" s="4"/>
       <c r="C19" s="3"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B23" s="24" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="24"/>
       <c r="D23" s="24"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B24" s="7" t="s">
         <v>2</v>
       </c>
@@ -715,7 +715,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B25" s="9" t="s">
         <v>0</v>
       </c>
@@ -726,7 +726,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B26" s="9" t="s">
         <v>24</v>
       </c>
@@ -737,7 +737,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B27" s="9" t="s">
         <v>25</v>
       </c>
@@ -748,14 +748,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B33" s="24" t="s">
         <v>12</v>
       </c>
       <c r="C33" s="24"/>
       <c r="D33" s="11"/>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B34" s="10" t="s">
         <v>0</v>
       </c>
@@ -764,7 +764,7 @@
       </c>
       <c r="D34" s="11"/>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B35" s="10" t="s">
         <v>24</v>
       </c>
@@ -773,17 +773,17 @@
       </c>
       <c r="D35" s="12"/>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B36" s="10"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>14</v>
       </c>
@@ -791,7 +791,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B40">
         <v>1</v>
       </c>
@@ -799,15 +799,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="2:4" s="18" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C41" s="1"/>
     </row>
-    <row r="43" spans="2:4" s="18" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B43" s="18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="2:4" s="18" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B44" s="18" t="s">
         <v>14</v>
       </c>
@@ -815,7 +815,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B45" s="18">
         <v>1</v>
       </c>
@@ -823,13 +823,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B48" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C48" s="24"/>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B49" s="13" t="s">
         <v>0</v>
       </c>
@@ -837,7 +837,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B50" s="13" t="s">
         <v>19</v>
       </c>
@@ -845,14 +845,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B53" s="24" t="s">
         <v>26</v>
       </c>
       <c r="C53" s="24"/>
       <c r="D53" s="24"/>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B54" s="16" t="s">
         <v>2</v>
       </c>
@@ -863,7 +863,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B55" s="17" t="s">
         <v>0</v>
       </c>
@@ -871,10 +871,10 @@
         <v>18</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.45">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B56" s="17" t="s">
         <v>24</v>
       </c>
@@ -885,7 +885,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B57" s="17" t="s">
         <v>1</v>
       </c>
@@ -896,25 +896,25 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B60" s="24" t="s">
         <v>27</v>
       </c>
       <c r="C60" s="24"/>
       <c r="D60" s="24"/>
     </row>
-    <row r="61" spans="2:4" s="22" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:4" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B61" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C61" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D61" s="23" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B62" s="26"/>
       <c r="C62" s="17" t="s">
         <v>3</v>
@@ -923,7 +923,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B63" s="17" t="s">
         <v>0</v>
       </c>
@@ -934,7 +934,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B64" s="17" t="s">
         <v>19</v>
       </c>
@@ -945,7 +945,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B65" s="17" t="s">
         <v>1</v>
       </c>
@@ -956,14 +956,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B69" s="19" t="s">
         <v>21</v>
       </c>
       <c r="C69" s="19"/>
       <c r="D69" s="19"/>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B70" s="19" t="s">
         <v>14</v>
       </c>
@@ -972,7 +972,7 @@
       </c>
       <c r="D70" s="19"/>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B71" s="19">
         <v>1</v>
       </c>
@@ -981,13 +981,13 @@
       </c>
       <c r="D71" s="19"/>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B74" s="24" t="s">
         <v>30</v>
       </c>
       <c r="C74" s="24"/>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B75" s="20" t="s">
         <v>0</v>
       </c>
@@ -995,7 +995,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B76" s="20" t="s">
         <v>29</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B77" t="s">
         <v>1</v>
       </c>
@@ -1011,14 +1011,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="80" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B80" s="24" t="s">
         <v>31</v>
       </c>
       <c r="C80" s="24"/>
       <c r="D80" s="24"/>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B81" s="20" t="s">
         <v>0</v>
       </c>
@@ -1029,7 +1029,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B82" s="20" t="s">
         <v>24</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B83" s="20" t="s">
         <v>1</v>
       </c>
@@ -1051,14 +1051,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B88" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C88" s="24"/>
       <c r="D88" s="14"/>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B89" s="21" t="s">
         <v>0</v>
       </c>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="D89" s="21"/>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B90" s="21" t="s">
         <v>19</v>
       </c>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="91" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B91" s="21"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
